--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/5.DoiBH/DM220825_VinaGPS.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/5.DoiBH/DM220825_VinaGPS.xlsx
@@ -140,9 +140,6 @@
     <t>Lỗi mất local GPS</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 25 tháng 08 Năm 2022</t>
-  </si>
-  <si>
     <t>0032002B60</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>0032002B27</t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày 26 tháng 08 Năm 2022</t>
   </si>
 </sst>
 </file>
@@ -445,6 +445,24 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -459,24 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -838,7 +838,7 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F13"/>
+      <selection activeCell="G15" sqref="G15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -858,76 +858,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="36" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="36" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -936,11 +936,11 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="6"/>
@@ -949,11 +949,11 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -965,11 +965,11 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1024,7 +1024,7 @@
         <v>27</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="32" t="s">
         <v>36</v>
@@ -1051,7 +1051,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="32" t="s">
         <v>37</v>
@@ -1078,7 +1078,7 @@
         <v>27</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="32" t="s">
         <v>36</v>
@@ -1105,49 +1105,49 @@
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="G15" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="42"/>
+      <c r="I16" s="37"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="46"/>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
@@ -1187,11 +1187,11 @@
       <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27" t="s">
         <v>16</v>
@@ -1200,22 +1200,32 @@
       <c r="G22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="43"/>
+      <c r="I22" s="38"/>
       <c r="J22" s="21"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
     </row>
     <row r="64" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A1:C4"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H22:I22"/>
@@ -1226,16 +1236,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A1:C4"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
